--- a/Titus/Gurobi code/Final/Input/AH-Dinsdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/AH-Dinsdag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974A382-32C6-4DED-A5BB-2D2D6324E7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C259C691-E4C5-4097-806A-627D50C89047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{D6CD85AD-E8EE-4875-A18D-825A3656BB16}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{D6CD85AD-E8EE-4875-A18D-825A3656BB16}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -153,11 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -474,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305A69FC-E517-4296-8547-C4B68D684B59}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,442 +483,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>3804.556826248127</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2783.8220679864339</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2505.43986118779</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="1">
+        <v>2842.9598548781451</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2080.214527959618</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1872.193075163656</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>4546.9093777111757</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2505.43986118779</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2876.6161369193151</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="1">
+        <v>3397.6837290007102</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1872.193075163656</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2149.5550122249392</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>4825.2915845098187</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3572.5716539159239</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2691.0279990535528</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2180.6606199227072</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2041.469516523385</v>
+      <c r="B3" s="1">
+        <v>3605.7051817966722</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2669.608644214843</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2010.8740436942981</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1629.501380235034</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1525.490653837054</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>3572.5716539159239</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2551.8368956542308</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1391.911033993217</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="1">
+        <v>2669.608644214843</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1906.8633172963171</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1040.107263979809</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>4686.1004811104976</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3154.998343717959</v>
-      </c>
-      <c r="D5" s="3">
-        <v>927.94068932881135</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="1">
+        <v>3501.6944553986909</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2357.5764650209012</v>
+      </c>
+      <c r="D5" s="1">
+        <v>693.40484265320606</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>4593.306412177616</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D6" s="3">
-        <v>649.55848253016791</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1">
+        <v>3432.3539711333701</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2392.2467071535611</v>
+      </c>
+      <c r="D6" s="1">
+        <v>485.38338985724431</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>4454.1153087782941</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2923.0131713857559</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1">
+        <v>3328.3432447353889</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2184.2252543575992</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>3758.1597917816862</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1855.8813786576229</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1">
+        <v>2808.2896127454851</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1386.8096853064119</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2923.0131713857559</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1">
+        <v>2184.2252543575992</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2830.2191024528752</v>
+      <c r="B10" s="1">
+        <v>2114.8847700922788</v>
       </c>
       <c r="C10" s="1">
-        <v>2691.0279990535528</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>2010.8740436942981</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>4268.5271709125318</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3526.1746194494831</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1">
+        <v>3189.6622762047482</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2634.9384020821831</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2392.2467071535611</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>2598.2339301206721</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="1">
+        <v>1941.533559428977</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>4454.1153087782941</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3479.7775849830432</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1809.4843441911819</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1">
+        <v>3328.3432447353889</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2600.2681599495231</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1352.1394431737519</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>4454.1153087782941</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2551.8368956542308</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="1">
+        <v>3328.3432447353889</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2392.2467071535611</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1906.8633172963171</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>3850.9538607145669</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2969.4102058521962</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="1">
+        <v>2877.630097010805</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2218.89549649026</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>2691.0279990535528</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2087.866550989826</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1855.8813786576229</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="1">
+        <v>2010.8740436942981</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1560.1608959697139</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1386.8096853064119</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>4778.8945500433783</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2505.43986118779</v>
-      </c>
-      <c r="D17" s="3">
-        <v>974.33772379525192</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="1">
+        <v>3571.0349396640108</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1872.193075163656</v>
+      </c>
+      <c r="D17" s="1">
+        <v>728.07508478586635</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>2830.2191024528752</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="1">
+        <v>2114.8847700922788</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>3850.9538607145669</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1345.5139995267759</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="1">
+        <v>2877.630097010805</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1005.437021847149</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>4546.9093777111757</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3386.9835160501621</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2319.8517233220282</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="1">
+        <v>3397.6837290007102</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2530.9276756842019</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1733.512106633015</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>3711.7627573152449</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="1">
+        <v>2773.6193706128238</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>4778.8945500433783</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3108.6013092515182</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2227.057654389147</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1623.8962063254201</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="B22" s="1">
+        <v>3571.0349396640108</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2322.9062228882399</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1664.1716223676949</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1213.458474643111</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>3758.1597917816862</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2830.2191024528752</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="1">
+        <v>2808.2896127454851</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2114.8847700922788</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>4500.5123432447353</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="1">
+        <v>3363.0134868680502</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2392.2467071535611</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>4593.306412177616</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3201.3953781843989</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2459.0428267213501</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="1">
+        <v>3432.3539711333701</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2392.2467071535611</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1837.522833030996</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>4361.3212398454134</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3062.2042747850769</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1763.087309724742</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="1">
+        <v>3259.002760470069</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2288.2359807555799</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1317.469201041092</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>4175.7331019796511</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2783.8220679864339</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2227.057654389147</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1763.087309724742</v>
-      </c>
-      <c r="F27" s="3"/>
+      <c r="B27" s="1">
+        <v>3120.3217919394269</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2080.214527959618</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1664.1716223676949</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1317.469201041092</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>3990.1449641138888</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="1">
+        <v>2981.6408234087862</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>3340.5864815837208</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2876.6161369193151</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1299.116965060336</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="1">
+        <v>2496.2574335515419</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2149.5550122249392</v>
+      </c>
+      <c r="D29" s="1">
+        <v>970.76677971448851</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
